--- a/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Ptch2.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD2/LR-pairs_lrc2p/Ihh-Ptch2.xlsx
@@ -561,28 +561,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.431002</v>
+        <v>3.503626</v>
       </c>
       <c r="N2">
-        <v>6.862004</v>
+        <v>7.007251999999999</v>
       </c>
       <c r="O2">
-        <v>0.315614070234469</v>
+        <v>0.3169831060911132</v>
       </c>
       <c r="P2">
-        <v>0.2467932984329498</v>
+        <v>0.2497807590538258</v>
       </c>
       <c r="Q2">
-        <v>0.05334407542866667</v>
+        <v>0.05447320917266666</v>
       </c>
       <c r="R2">
-        <v>0.320064452572</v>
+        <v>0.326839255036</v>
       </c>
       <c r="S2">
-        <v>0.315614070234469</v>
+        <v>0.3169831060911132</v>
       </c>
       <c r="T2">
-        <v>0.2467932984329498</v>
+        <v>0.2497807590538258</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -629,10 +629,10 @@
         <v>4.07709</v>
       </c>
       <c r="O3">
-        <v>0.1250156630251893</v>
+        <v>0.122955347023628</v>
       </c>
       <c r="P3">
-        <v>0.1466333288508714</v>
+        <v>0.1453320980793559</v>
       </c>
       <c r="Q3">
         <v>0.02112974543</v>
@@ -641,10 +641,10 @@
         <v>0.19016770887</v>
       </c>
       <c r="S3">
-        <v>0.1250156630251893</v>
+        <v>0.122955347023628</v>
       </c>
       <c r="T3">
-        <v>0.1466333288508714</v>
+        <v>0.1453320980793559</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -679,34 +679,34 @@
         <v>1</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>1.120271333333333</v>
+        <v>0.314223</v>
       </c>
       <c r="N4">
-        <v>3.360814</v>
+        <v>0.942669</v>
       </c>
       <c r="O4">
-        <v>0.1030525179758942</v>
+        <v>0.02842865720977863</v>
       </c>
       <c r="P4">
-        <v>0.120872324248082</v>
+        <v>0.03360241337924067</v>
       </c>
       <c r="Q4">
-        <v>0.01741760526688889</v>
+        <v>0.004885434463</v>
       </c>
       <c r="R4">
-        <v>0.156758447402</v>
+        <v>0.043968910167</v>
       </c>
       <c r="S4">
-        <v>0.1030525179758942</v>
+        <v>0.02842865720977863</v>
       </c>
       <c r="T4">
-        <v>0.120872324248082</v>
+        <v>0.03360241337924067</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -747,28 +747,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.3769705</v>
+        <v>1.601875</v>
       </c>
       <c r="N5">
-        <v>2.753941</v>
+        <v>3.20375</v>
       </c>
       <c r="O5">
-        <v>0.1266659897306361</v>
+        <v>0.1449262315868481</v>
       </c>
       <c r="P5">
-        <v>0.09904601965835871</v>
+        <v>0.1142009887497545</v>
       </c>
       <c r="Q5">
-        <v>0.02140867834383334</v>
+        <v>0.02490541854166667</v>
       </c>
       <c r="R5">
-        <v>0.128452070063</v>
+        <v>0.14943251125</v>
       </c>
       <c r="S5">
-        <v>0.1266659897306361</v>
+        <v>0.1449262315868481</v>
       </c>
       <c r="T5">
-        <v>0.09904601965835871</v>
+        <v>0.1142009887497545</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -809,28 +809,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.362270666666667</v>
+        <v>3.705586</v>
       </c>
       <c r="N6">
-        <v>7.086812</v>
+        <v>11.116758</v>
       </c>
       <c r="O6">
-        <v>0.2173026597192772</v>
+        <v>0.335255007288947</v>
       </c>
       <c r="P6">
-        <v>0.2548785615476484</v>
+        <v>0.3962683590454134</v>
       </c>
       <c r="Q6">
-        <v>0.03672779690177778</v>
+        <v>0.05761321593266667</v>
       </c>
       <c r="R6">
-        <v>0.330550172116</v>
+        <v>0.518518943394</v>
       </c>
       <c r="S6">
-        <v>0.2173026597192772</v>
+        <v>0.335255007288947</v>
       </c>
       <c r="T6">
-        <v>0.2548785615476484</v>
+        <v>0.3962683590454134</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -871,28 +871,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.221333333333333</v>
+        <v>0.5686969999999999</v>
       </c>
       <c r="N7">
-        <v>3.664</v>
+        <v>1.706091</v>
       </c>
       <c r="O7">
-        <v>0.112349099314534</v>
+        <v>0.05145165079968518</v>
       </c>
       <c r="P7">
-        <v>0.1317764672620896</v>
+        <v>0.06081538169240962</v>
       </c>
       <c r="Q7">
-        <v>0.01898888355555556</v>
+        <v>0.008841911390333331</v>
       </c>
       <c r="R7">
-        <v>0.170899952</v>
+        <v>0.07957720251299999</v>
       </c>
       <c r="S7">
-        <v>0.112349099314534</v>
+        <v>0.05145165079968518</v>
       </c>
       <c r="T7">
-        <v>0.1317764672620896</v>
+        <v>0.06081538169240962</v>
       </c>
     </row>
   </sheetData>
